--- a/Semester8/lab/exp6/exp6.xlsx
+++ b/Semester8/lab/exp6/exp6.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8280" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="readings1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="readings2" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="formatedReadings2" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>B=0</t>
   </si>
@@ -76,12 +77,39 @@
   <si>
     <t>~3.7,0.9 (V,A) electromagnet power)</t>
   </si>
+  <si>
+    <t>Current [I] (mA)</t>
+  </si>
+  <si>
+    <t>Voltage [V_H] (mV)</t>
+  </si>
+  <si>
+    <t>[B] (Gauss)</t>
+  </si>
+  <si>
+    <t>&lt;Before</t>
+  </si>
+  <si>
+    <t>&lt;After</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-B] (Gauss)</t>
+  </si>
+  <si>
+    <t>&lt;Before [behind, in front]</t>
+  </si>
+  <si>
+    <t>&lt;After [behind, in front]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -Voltage [ -V_H] (mV)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,13 +117,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -107,13 +147,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -235,7 +278,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$12:$A$26</c:f>
+              <c:f>readings1!$A$12:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -289,7 +332,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$12:$B$26</c:f>
+              <c:f>readings1!$B$12:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -351,11 +394,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="14597424"/>
-        <c:axId val="14602864"/>
+        <c:axId val="1343584128"/>
+        <c:axId val="1343589568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="14597424"/>
+        <c:axId val="1343584128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -412,12 +455,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14602864"/>
+        <c:crossAx val="1343589568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="14602864"/>
+        <c:axId val="1343589568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -474,7 +517,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14597424"/>
+        <c:crossAx val="1343584128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -538,7 +581,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -807,11 +849,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="14596336"/>
-        <c:axId val="14598512"/>
+        <c:axId val="1343592288"/>
+        <c:axId val="1343593920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="14596336"/>
+        <c:axId val="1343592288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -868,12 +910,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14598512"/>
+        <c:crossAx val="1343593920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="14598512"/>
+        <c:axId val="1343593920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -930,7 +972,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14596336"/>
+        <c:crossAx val="1343592288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -994,7 +1036,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1287,11 +1328,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1689058256"/>
-        <c:axId val="1689064784"/>
+        <c:axId val="1343590112"/>
+        <c:axId val="1343592832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1689058256"/>
+        <c:axId val="1343590112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1348,12 +1389,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1689064784"/>
+        <c:crossAx val="1343592832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1689064784"/>
+        <c:axId val="1343592832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1410,7 +1451,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1689058256"/>
+        <c:crossAx val="1343590112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3497,7 +3538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -4089,7 +4130,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4721,4 +4762,326 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1600</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1420</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1430</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4.46</v>
+      </c>
+      <c r="B4">
+        <v>2.8</v>
+      </c>
+      <c r="F4">
+        <v>3.45</v>
+      </c>
+      <c r="G4">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6.18</v>
+      </c>
+      <c r="B5">
+        <v>3.8</v>
+      </c>
+      <c r="F5">
+        <v>4.13</v>
+      </c>
+      <c r="G5">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>7.41</v>
+      </c>
+      <c r="B6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F6">
+        <v>5.84</v>
+      </c>
+      <c r="G6">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>8.93</v>
+      </c>
+      <c r="B7">
+        <v>5.6</v>
+      </c>
+      <c r="F7">
+        <v>6.08</v>
+      </c>
+      <c r="G7">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9.51</v>
+      </c>
+      <c r="B8">
+        <v>5.9</v>
+      </c>
+      <c r="F8">
+        <v>7.47</v>
+      </c>
+      <c r="G8">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="B9">
+        <v>6.3</v>
+      </c>
+      <c r="F9">
+        <v>8.76</v>
+      </c>
+      <c r="G9">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>11.09</v>
+      </c>
+      <c r="B10">
+        <v>6.8</v>
+      </c>
+      <c r="F10">
+        <v>9.68</v>
+      </c>
+      <c r="G10">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>12.03</v>
+      </c>
+      <c r="B11">
+        <v>7.4</v>
+      </c>
+      <c r="F11">
+        <v>10.9</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12.95</v>
+      </c>
+      <c r="B12">
+        <v>7.9</v>
+      </c>
+      <c r="F12">
+        <v>12.06</v>
+      </c>
+      <c r="G12">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13.72</v>
+      </c>
+      <c r="B13">
+        <v>8.4</v>
+      </c>
+      <c r="F13">
+        <v>13.14</v>
+      </c>
+      <c r="G13">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14.44</v>
+      </c>
+      <c r="B14">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F14">
+        <v>14.16</v>
+      </c>
+      <c r="G14">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15.08</v>
+      </c>
+      <c r="B15">
+        <v>9.1</v>
+      </c>
+      <c r="F15">
+        <v>15.19</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>9.6</v>
+      </c>
+      <c r="F16">
+        <v>15.87</v>
+      </c>
+      <c r="G16">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="B17">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F17">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="G17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18.079999999999998</v>
+      </c>
+      <c r="B18">
+        <v>10.8</v>
+      </c>
+      <c r="F18">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="G18">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19.25</v>
+      </c>
+      <c r="B19">
+        <v>11.5</v>
+      </c>
+      <c r="F19">
+        <v>18.39</v>
+      </c>
+      <c r="G19">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19.89</v>
+      </c>
+      <c r="B20">
+        <v>11.8</v>
+      </c>
+      <c r="F20">
+        <v>19.27</v>
+      </c>
+      <c r="G20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1610</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1430</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1410</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>